--- a/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
+++ b/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\cv\2023\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932A20B-3BB5-489A-975B-390F11A84747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC09BBF-5E27-4CD3-9D15-44229120D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,13 +1046,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1289,12 +1292,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="18.88671875" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" hidden="1" customWidth="1"/>
@@ -1378,7 +1382,9 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="6">
+        <v>7721839072</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1420,15 +1426,17 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C2,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/chaitaliahirrao07112000@gmail.com.pdf</v>
+        <f t="shared" ref="X2:X42" si="0">HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/Master/",A2,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Ahirrao Chaitali Sanjay.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="6">
+        <v>8485860669</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1442,15 +1450,17 @@
         <v>37</v>
       </c>
       <c r="X3" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C3,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/awareadityaonly1@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Aware Aditya Bapurao.pdf</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="6">
+        <v>9370373159</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1506,15 +1516,17 @@
         <v>0.69159999999999999</v>
       </c>
       <c r="X4" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C4,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/mayuribari0310@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Bari Mayuri Rajesh.pdf</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="6">
+        <v>9370860580</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1552,15 +1564,17 @@
         <v>2</v>
       </c>
       <c r="X5" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C5,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/harshalbhandarkar001@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Bhandarkar Harshal Suresh.pdf</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="6">
+        <v>7498591791</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1607,15 +1621,17 @@
         <v>52.33</v>
       </c>
       <c r="X6" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C6,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/jayeshchaudhari7585@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Chaudhari Jayesh Suresh.pdf</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="6">
+        <v>7083344262</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
@@ -1648,8 +1664,8 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C7,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/kbdesale999@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Desale Kalyani Bhausaheb.pdf</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1718,8 +1734,8 @@
         <v>0.70830000000000004</v>
       </c>
       <c r="X8" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C8,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/fulpagarepradip677@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Fulpagare Pradip Shantaram.pdf</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1768,8 +1784,8 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C9,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/aakashgaikwad0330@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Gaikwad Aakash Pandurang.pdf</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1832,8 +1848,8 @@
         <v>63.16</v>
       </c>
       <c r="X10" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C10,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/sachinghogare1762@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Ghogare Sachin Nanasaheb.pdf</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1890,8 +1906,8 @@
         <v>67.67</v>
       </c>
       <c r="X11" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C11,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/prachigore408@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Gore Prachi Ganpat.pdf</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1943,8 +1959,8 @@
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C12,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/anjalijadhav4112000@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Jadhav Anjali Sakarchand.pdf</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1974,15 +1990,17 @@
         <v>105</v>
       </c>
       <c r="X13" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C13,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/jamadarchetana264@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Jamadhar Chetana Sunilsing.pdf</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>8080664723</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>106</v>
       </c>
@@ -2044,15 +2062,17 @@
         <v>56.11</v>
       </c>
       <c r="X14" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C14,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/priyadkhairnar15@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Khairnar Priyanka Devidas.pdf</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>7057685423</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>116</v>
       </c>
@@ -2099,15 +2119,17 @@
         <v>50.33</v>
       </c>
       <c r="X15" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C15,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/vivekslohar@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Lohar Vivek Sahebrao.pdf</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>7620698045</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>121</v>
       </c>
@@ -2157,15 +2179,17 @@
         <v>6.04</v>
       </c>
       <c r="X16" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C16,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/dhanashrimahajan019@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Mahajan Dhanashri Vikas.pdf</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>9834149987</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>125</v>
       </c>
@@ -2221,15 +2245,17 @@
         <v>73.33</v>
       </c>
       <c r="X17" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C17,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/mahajankanchan558@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Mahajan Kanchan Jayant.pdf</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>9923296898</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>131</v>
       </c>
@@ -2268,15 +2294,17 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C18,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/lalitmarathe52000@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Marathe Lalit Dattatray.pdf</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>7046197557</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>139</v>
       </c>
@@ -2293,15 +2321,17 @@
         <v>49</v>
       </c>
       <c r="X19" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C19,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/Vishalmotirale111@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Motirale Vishal Rajendra.pdf</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>9370679120</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
@@ -2318,15 +2348,17 @@
         <v>59</v>
       </c>
       <c r="X20" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C20,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/komalnikam0801@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Nikam Komal Dada.pdf</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>7841048009</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>145</v>
       </c>
@@ -2343,15 +2375,17 @@
         <v>57</v>
       </c>
       <c r="X21" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C21,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/vikrantnikam007@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Nikam Vikrant Dipak.pdf</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>8484886534</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>148</v>
       </c>
@@ -2396,15 +2430,17 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="X22" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C22,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/samiyaa.khanam@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Pathan Samiya Khanam Z..pdf</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>9146294790</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>151</v>
       </c>
@@ -2460,15 +2496,17 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="X23" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C23,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/patilabhishek151089@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Abhishek Balmukund.pdf</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>9422387915</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>160</v>
       </c>
@@ -2515,15 +2553,17 @@
         <v>57.66</v>
       </c>
       <c r="X24" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C24,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/patilbhavesh1572000@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Bhavesh Pramod.pdf</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>7218083102</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>166</v>
       </c>
@@ -2585,15 +2625,17 @@
         <v>65.16</v>
       </c>
       <c r="X25" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C25,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/dikshpatil7890@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Diksha Dilip.pdf</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>7083216462</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>173</v>
       </c>
@@ -2655,15 +2697,17 @@
         <v>60</v>
       </c>
       <c r="X26" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C26,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/dp7083216462@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Divya Dipak.pdf</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>7057789236</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>182</v>
       </c>
@@ -2693,15 +2737,17 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C27,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/hemangipatil558@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Hemangi Ravindra.pdf</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>9665783941</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>186</v>
       </c>
@@ -2754,8 +2800,8 @@
         <v>64.5</v>
       </c>
       <c r="X28" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C28,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/hemantppatil2000@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Hemant Prakash.pdf</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2801,15 +2847,17 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C29,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/nikitapatil7028@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Nikita Sharad.pdf</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>8999267583</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>197</v>
       </c>
@@ -2862,15 +2910,17 @@
         <v>59.83</v>
       </c>
       <c r="X30" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C30,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/npofficial399398@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Nishant Nana.pdf</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>9405660772</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>205</v>
       </c>
@@ -2914,15 +2964,17 @@
         <v>57.08</v>
       </c>
       <c r="X31" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C31,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/parudpatil12@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Parag Dilip.pdf</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1">
+        <v>9075347494</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>211</v>
       </c>
@@ -2945,15 +2997,17 @@
         <v>215</v>
       </c>
       <c r="X32" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C32,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/rahuld.patil2401@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Rahul Dineshbhai.pdf</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>7378672969</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>216</v>
       </c>
@@ -2997,15 +3051,17 @@
         <v>69.16</v>
       </c>
       <c r="X33" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C33,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/104sopanpatil@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Sopan Raman.pdf</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>9370986862</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>219</v>
       </c>
@@ -3058,15 +3114,17 @@
         <v>61.35</v>
       </c>
       <c r="X34" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C34,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/vaishnavipatil1143@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Vaishnavi Pradip.pdf</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>9518961293</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>225</v>
       </c>
@@ -3116,15 +3174,17 @@
         <v>78.66</v>
       </c>
       <c r="X35" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C35,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/pvaishnavi808@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Vaishnavi Sharad.pdf</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>7038260888</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>230</v>
       </c>
@@ -3174,15 +3234,17 @@
         <v>63.5</v>
       </c>
       <c r="X36" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C36,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/prasanna291199@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Pawar Prasanna Deepak.pdf</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <v>8668260246</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>236</v>
       </c>
@@ -3238,15 +3300,17 @@
         <v>0.68330000000000002</v>
       </c>
       <c r="X37" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C37,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/puranikyashashri@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Puranik Yashashri Madhav.pdf</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1">
+        <v>8459370635</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>242</v>
       </c>
@@ -3296,15 +3360,17 @@
         <v>48.835000000000001</v>
       </c>
       <c r="X38" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C38,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/atulsalunke7110@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Salunke Atul Dilip.pdf</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <v>9359004454</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>248</v>
       </c>
@@ -3357,15 +3423,17 @@
         <v>69.66</v>
       </c>
       <c r="X39" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C39,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/chetansalunke352000@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Salunke Chetan Rajaram.pdf</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>9359764318</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>253</v>
       </c>
@@ -3421,15 +3489,17 @@
         <v>53</v>
       </c>
       <c r="X40" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C40,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/ksapkal2000@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Sapkal Komal Ramesh.pdf</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>9370859629</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>261</v>
       </c>
@@ -3446,15 +3516,17 @@
         <v>27</v>
       </c>
       <c r="X41" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C41,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/pranits1999@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Sonawane Pranit Ramesh.pdf</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>7378778184</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>264</v>
       </c>
@@ -3507,15 +3579,17 @@
         <v>0.60829999999999995</v>
       </c>
       <c r="X42" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C42,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/suryawanshih456@gmail.com.pdf</v>
+        <f t="shared" si="0"/>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Suryawanshi Hitesh Ananda.pdf</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>8149226221</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>273</v>
       </c>
@@ -3565,8 +3639,8 @@
         <v>0.62170000000000003</v>
       </c>
       <c r="X43" s="5" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/master/",C43,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2023/master/bhanujayeola10@gmail.com.pdf</v>
+        <f t="shared" ref="X43" si="1">HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/Master/",A43,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2023/Master/Yeola Bhanuja Bharat.pdf</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3648,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W43">
     <sortCondition ref="A2:A43"/>
   </sortState>
-  <conditionalFormatting sqref="A1:B1048576">
+  <conditionalFormatting sqref="A1:B43 A76:B1048576 A44:A75">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
+++ b/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\cv\2023\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC09BBF-5E27-4CD3-9D15-44229120D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F6784-27A9-44EE-AEAF-2FF16FD8B65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,7 +998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1024,6 +1024,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1046,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1056,6 +1063,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1289,10 +1298,10 @@
   <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1415,9 +1424,13 @@
       <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1">
+        <v>2018</v>
+      </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1">
+        <v>2021</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1449,6 +1462,12 @@
       <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="N3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2021</v>
+      </c>
       <c r="X3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Aware Aditya Bapurao.pdf</v>
@@ -1653,9 +1672,13 @@
       <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>2018</v>
+      </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>2021</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1672,7 +1695,9 @@
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>9373962417</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
@@ -1742,7 +1767,9 @@
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>8686040330</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1773,9 +1800,13 @@
       <c r="M9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>2018</v>
+      </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>2021</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1792,7 +1823,9 @@
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>7350141762</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1856,7 +1889,9 @@
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>9922546958</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>92</v>
       </c>
@@ -1882,7 +1917,7 @@
         <v>75</v>
       </c>
       <c r="P11" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="Q11" s="1">
         <v>79</v>
@@ -1914,7 +1949,9 @@
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>7420889366</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>97</v>
       </c>
@@ -1967,7 +2004,9 @@
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>9322073014</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
@@ -1988,6 +2027,12 @@
       </c>
       <c r="K13" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2021</v>
       </c>
       <c r="X13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2283,16 +2328,34 @@
       <c r="M18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>2018</v>
+      </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="P18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>8</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>65.33</v>
+      </c>
+      <c r="V18" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>45.5</v>
+      </c>
       <c r="X18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Marathe Lalit Dattatray.pdf</v>
@@ -2320,6 +2383,13 @@
       <c r="H19" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="N19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q19" s="7"/>
       <c r="X19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Motirale Vishal Rajendra.pdf</v>
@@ -2347,6 +2417,13 @@
       <c r="H20" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="N20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q20" s="7"/>
       <c r="X20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Nikam Komal Dada.pdf</v>
@@ -2374,6 +2451,33 @@
       <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="N21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
+        <v>1</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>58.66</v>
+      </c>
+      <c r="V21" s="8">
+        <v>56.83</v>
+      </c>
+      <c r="W21" s="8">
+        <v>57.5</v>
+      </c>
       <c r="X21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Nikam Vikrant Dipak.pdf</v>
@@ -2726,9 +2830,13 @@
       <c r="M27" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>2018</v>
+      </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <v>2021</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2808,7 +2916,9 @@
       <c r="A29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>9373091777</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>190</v>
       </c>
@@ -2836,9 +2946,13 @@
       <c r="M29" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>2018</v>
+      </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1">
+        <v>2021</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2996,6 +3110,33 @@
       <c r="K32" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="N32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>8.89</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>5</v>
+      </c>
+      <c r="U32" s="8">
+        <v>63</v>
+      </c>
+      <c r="V32" s="8">
+        <v>52.17</v>
+      </c>
+      <c r="W32" s="8">
+        <v>38.33</v>
+      </c>
       <c r="X32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Rahul Dineshbhai.pdf</v>
@@ -3179,7 +3320,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="8" t="s">
         <v>231</v>
       </c>
       <c r="B36" s="1">
@@ -3514,6 +3655,12 @@
       </c>
       <c r="H41" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P41" s="1">
+        <v>2021</v>
       </c>
       <c r="X41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3648,7 +3795,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W43">
     <sortCondition ref="A2:A43"/>
   </sortState>
-  <conditionalFormatting sqref="A1:B43 A76:B1048576 A44:A75">
+  <conditionalFormatting sqref="A76:B1048576 A44:A75 A1:B43">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -3726,7 +3873,8 @@
     <hyperlink ref="K13" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
+  <legacyDrawing r:id="rId74"/>
 </worksheet>
 </file>
 

--- a/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
+++ b/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\cv\2023\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F6784-27A9-44EE-AEAF-2FF16FD8B65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED0DC9-1DF1-42DE-BC8F-DF49D9782586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="612" windowWidth="22044" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>have you done any internship?</t>
   </si>
   <si>
-    <t>Name of the industry from which you done internship and your job role as intern.</t>
-  </si>
-  <si>
     <t>Skills</t>
   </si>
   <si>
@@ -992,6 +989,9 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1298,10 @@
   <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB12" sqref="AB12"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1332,112 +1332,128 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>7721839072</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="N2" s="1">
         <v>2018</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1">
+        <v>71.23</v>
+      </c>
       <c r="P2" s="1">
         <v>2021</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="Q2" s="1">
+        <v>76</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1">
+        <v>60.16</v>
+      </c>
+      <c r="V2" s="1">
+        <v>55.33</v>
+      </c>
+      <c r="W2" s="1">
+        <v>39.83</v>
+      </c>
       <c r="X2" s="5" t="str">
         <f t="shared" ref="X2:X42" si="0">HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/Master/",A2,".pdf"))</f>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Ahirrao Chaitali Sanjay.pdf</v>
@@ -1445,22 +1461,22 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6">
         <v>8485860669</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="1">
         <v>2018</v>
@@ -1475,34 +1491,34 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6">
         <v>9370373159</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="N4" s="1">
         <v>2018</v>
@@ -1541,25 +1557,25 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6">
         <v>9370860580</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="N5" s="1">
         <v>2018</v>
@@ -1571,7 +1587,7 @@
         <v>2021</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1589,25 +1605,25 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6">
         <v>7498591791</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="N6" s="1">
         <v>2018</v>
@@ -1646,46 +1662,62 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6">
         <v>7083344262</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="N7" s="1">
         <v>2018</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1">
+        <v>80</v>
+      </c>
       <c r="P7" s="1">
         <v>2021</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="Q7" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>65.16</v>
+      </c>
+      <c r="V7" s="1">
+        <v>52.83</v>
+      </c>
+      <c r="W7" s="1">
+        <v>39.83</v>
+      </c>
       <c r="X7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Desale Kalyani Bhausaheb.pdf</v>
@@ -1693,40 +1725,40 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1">
         <v>9373962417</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="N8" s="1">
         <v>2018</v>
@@ -1738,7 +1770,7 @@
         <v>2021</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1765,40 +1797,40 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>8686040330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="N9" s="1">
         <v>2018</v>
@@ -1821,34 +1853,34 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1">
         <v>7350141762</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="N10" s="1">
         <v>2018</v>
@@ -1887,28 +1919,28 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>9922546958</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="N11" s="1">
         <v>2017</v>
@@ -1947,25 +1979,25 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1">
         <v>7420889366</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="1">
         <v>2018</v>
@@ -2002,31 +2034,31 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1">
         <v>9322073014</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="N13" s="1">
         <v>2018</v>
@@ -2041,40 +2073,40 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1">
         <v>8080664723</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="N14" s="1">
         <v>2018</v>
@@ -2113,28 +2145,28 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1">
         <v>7057685423</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N15" s="1">
         <v>2018</v>
@@ -2146,7 +2178,7 @@
         <v>2021</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2170,28 +2202,28 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1">
         <v>7620698045</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" s="1">
         <v>2018</v>
@@ -2230,34 +2262,34 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1">
         <v>9834149987</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="N17" s="1">
         <v>2018</v>
@@ -2296,37 +2328,37 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="1">
         <v>9923296898</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="N18" s="1">
         <v>2018</v>
@@ -2363,33 +2395,56 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1">
         <v>7046197557</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N19" s="1">
         <v>2018</v>
       </c>
+      <c r="O19" s="1">
+        <v>60</v>
+      </c>
       <c r="P19" s="1">
         <v>2021</v>
       </c>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="7">
+        <v>8.61</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="V19" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="W19" s="1">
+        <v>35.33</v>
+      </c>
       <c r="X19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Motirale Vishal Rajendra.pdf</v>
@@ -2397,33 +2452,56 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1">
         <v>9370679120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N20" s="1">
         <v>2018</v>
       </c>
+      <c r="O20" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="P20" s="1">
         <v>2021</v>
       </c>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="7">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="V20" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>56.5</v>
+      </c>
       <c r="X20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Nikam Komal Dada.pdf</v>
@@ -2431,25 +2509,25 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="1">
         <v>7841048009</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N21" s="1">
         <v>2018</v>
@@ -2485,25 +2563,25 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="1">
         <v>8484886534</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N22" s="1">
         <v>2018</v>
@@ -2540,37 +2618,37 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1">
         <v>9146294790</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="N23" s="1">
         <v>2018</v>
@@ -2582,7 +2660,7 @@
         <v>2021</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -2606,28 +2684,28 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="1">
         <v>9422387915</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="N24" s="1">
         <v>2018</v>
@@ -2663,40 +2741,40 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1">
         <v>7218083102</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="N25" s="1">
         <v>2018</v>
@@ -2708,7 +2786,7 @@
         <v>2021</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -2735,40 +2813,40 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1">
         <v>7083216462</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="N26" s="1">
         <v>2018</v>
@@ -2780,7 +2858,7 @@
         <v>2021</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -2807,43 +2885,59 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="1">
         <v>7057789236</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="N27" s="1">
         <v>2018</v>
       </c>
-      <c r="O27" s="1"/>
+      <c r="O27" s="1">
+        <v>67.08</v>
+      </c>
       <c r="P27" s="1">
         <v>2021</v>
       </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="Q27" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>55.66</v>
+      </c>
+      <c r="V27" s="1">
+        <v>52.33</v>
+      </c>
+      <c r="W27" s="1">
+        <v>51.22</v>
+      </c>
       <c r="X27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Hemangi Ravindra.pdf</v>
@@ -2851,31 +2945,31 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="1">
         <v>9665783941</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="N28" s="1">
         <v>2018</v>
@@ -2914,37 +3008,37 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="1">
         <v>9373091777</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="N29" s="1">
         <v>2018</v>
@@ -2967,34 +3061,34 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="1">
         <v>8999267583</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="N30" s="1">
         <v>2018</v>
@@ -3030,28 +3124,28 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" s="1">
         <v>9405660772</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="N31" s="1">
         <v>2018</v>
@@ -3084,35 +3178,38 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="1">
         <v>9075347494</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="N32" s="1">
         <v>2018</v>
       </c>
+      <c r="O32" s="1">
+        <v>80.33</v>
+      </c>
       <c r="P32" s="1">
         <v>2021</v>
       </c>
@@ -3144,22 +3241,22 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="1">
         <v>7378672969</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N33" s="1">
         <v>2018</v>
@@ -3198,31 +3295,31 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="1">
         <v>9370986862</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="N34" s="1">
         <v>2018</v>
@@ -3234,7 +3331,7 @@
         <v>2021</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -3261,28 +3358,28 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="1">
         <v>9518961293</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="N35" s="1">
         <v>2018</v>
@@ -3294,7 +3391,7 @@
         <v>2021</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -3321,34 +3418,34 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" s="1">
         <v>7038260888</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="K36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="N36" s="1">
         <v>2017</v>
@@ -3381,34 +3478,34 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="1">
         <v>8668260246</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="N37" s="1">
         <v>2017</v>
@@ -3447,31 +3544,31 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="1">
         <v>8459370635</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="N38" s="1">
         <v>2018</v>
@@ -3483,7 +3580,7 @@
         <v>2021</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -3507,31 +3604,31 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="1">
         <v>9359004454</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="N39" s="1">
         <v>2018</v>
@@ -3570,37 +3667,37 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="1">
         <v>9359764318</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="N40" s="1">
         <v>2018</v>
@@ -3612,7 +3709,7 @@
         <v>2021</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -3636,25 +3733,25 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41" s="1">
         <v>9370859629</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N41" s="1">
         <v>2018</v>
@@ -3669,34 +3766,34 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" s="1">
         <v>7378778184</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="N42" s="1">
         <v>2018</v>
@@ -3708,7 +3805,7 @@
         <v>2021</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -3732,28 +3829,28 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B43" s="1">
         <v>8149226221</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="K43" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="N43" s="1">
         <v>2018</v>
@@ -3894,986 +3991,986 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="str">
         <f t="shared" ref="B1:B255" si="0">IF(A1=A2,"",A1)</f>
         <v/>
       </c>
       <c r="D1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>104sopanpatil@gmail.com</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D11" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>aakashgaikwad0330@gmail.com</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D18" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>anjalijadhav4112000@gmail.com</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D23" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D27" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D28" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>atulsalunke7110@gmail.com</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D34" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>awareadityaonly1@gmail.com</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D38" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>bhanujayeola10@gamil.com</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>bhanujayeola10@gmail.com</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D44" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D45" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D46" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>chaitaliahirrao07112000@gmail.com</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D53" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>chetansalunke352000@gmail.com</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D57" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D58" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D59" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D60" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D61" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D63" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D64" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>dhanashrimahajan019@gmail.com</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D66" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B67" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D67" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D68" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1" t="str">
         <f t="shared" si="0"/>
         <v>dikshapatil7890@gmail.com</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D70" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D71" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D72" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="1" t="str">
         <f t="shared" si="0"/>
         <v>dikshpatil7890@gmail.com</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D74" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D75" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D77" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D78" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D79" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D80" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D81" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="0"/>
         <v>dp7083216462@gmail.com</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4885,7 +4982,7 @@
         <v/>
       </c>
       <c r="D83" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,7 +4994,7 @@
         <v/>
       </c>
       <c r="D84" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4909,7 +5006,7 @@
         <v/>
       </c>
       <c r="D85" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,2959 +5018,2959 @@
         <v>Email address</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D87" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D88" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D89" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B90" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D90" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D91" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D93" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B95" s="1" t="str">
         <f t="shared" si="0"/>
         <v>fulpagarepradip677@gmail.com</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D96" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B97" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D97" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B98" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D98" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D99" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B100" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D100" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B101" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D101" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B102" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D102" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B103" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D103" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B104" s="1" t="str">
         <f t="shared" si="0"/>
         <v>harshalbhandarkar001@gmail.com</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B105" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D105" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B106" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D106" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B107" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D107" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B108" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hemangipatil558@gmail.com</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B109" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D109" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B110" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D110" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B111" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D111" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D112" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B113" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D113" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B114" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D114" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B115" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D115" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D116" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B117" s="1" t="str">
         <f t="shared" si="0"/>
         <v>hemantppatil2000@gmail.com</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D118" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B119" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D119" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D120" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B121" s="1" t="str">
         <f t="shared" si="0"/>
         <v>jamadarchetana264@gmail.com</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D122" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D123" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D124" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125" s="1" t="str">
         <f t="shared" si="0"/>
         <v>jayeshchaudhari7585@gmail.com</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B126" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D126" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B127" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D127" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B128" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D128" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B129" s="1" t="str">
         <f t="shared" si="0"/>
         <v>jayeshchaudhariofficial7585@gmail.com</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B130" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D130" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B131" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D131" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B132" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D132" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B133" s="1" t="str">
         <f t="shared" si="0"/>
         <v>kbdesale999@gmail.com</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D134" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B135" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D135" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D136" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" s="1" t="str">
         <f t="shared" si="0"/>
         <v>komalnikam0801@gmail.com</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B138" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D138" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B139" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D139" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B140" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D140" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B141" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D141" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D142" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B143" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D143" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B144" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D144" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B145" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D145" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B146" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ksapkal2000@gmail.com</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D147" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D148" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B149" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D149" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lalitmarathe52000@gmail.com</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B151" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D151" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D152" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B153" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D153" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B154" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D154" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B155" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D155" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B156" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D156" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B157" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D157" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B158" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D158" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D159" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B160" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D160" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B161" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D161" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B162" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D162" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B163" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D163" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B164" s="1" t="str">
         <f t="shared" si="0"/>
         <v>mahajankanchan558@gmail.com</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B165" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D165" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B166" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D166" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B167" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D167" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B168" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D168" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B169" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D169" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B170" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D170" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B171" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D171" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B172" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D172" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B173" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D173" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B174" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D174" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B175" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D175" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B176" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D176" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B177" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D177" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B178" s="1" t="str">
         <f t="shared" si="0"/>
         <v>mayuribari0310@gmail.com</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B179" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D179" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B180" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D180" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B181" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D181" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B182" s="1" t="str">
         <f t="shared" si="0"/>
         <v>nikitapatil7028@gmail.com</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B183" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D183" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B184" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D184" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B185" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D185" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B186" s="1" t="str">
         <f t="shared" si="0"/>
         <v>npofficial399398@gmail.com</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B187" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D187" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B188" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D188" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B189" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D189" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B190" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D190" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B191" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D191" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B192" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D192" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B193" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D193" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B194" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D194" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B195" s="1" t="str">
         <f t="shared" si="0"/>
         <v>parudpatil12@gmail.com</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B196" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D196" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B197" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D197" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B198" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D198" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B199" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D199" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B200" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D200" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B201" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D201" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B202" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D202" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B203" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D203" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B204" s="1" t="str">
         <f t="shared" si="0"/>
         <v>patilabhishek151089@gmail.com</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B205" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D205" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B206" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D206" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B207" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D207" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B208" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D208" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B209" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D209" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B210" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D210" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B211" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D211" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B212" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D212" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B213" s="1" t="str">
         <f t="shared" si="0"/>
         <v>patilbhavesh1572000@gmail.com</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B214" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D214" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B215" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D215" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B216" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D216" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B217" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D217" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B218" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D218" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B219" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D219" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B220" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D220" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B221" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D221" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B222" s="1" t="str">
         <f t="shared" si="0"/>
         <v>prachigore408@gmail.com</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D223" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B224" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D224" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B225" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D225" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B226" s="1" t="str">
         <f t="shared" si="0"/>
         <v>pranits1999@gmail.com</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B227" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D227" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D228" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D229" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D230" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D231" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B232" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D232" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B233" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D233" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B234" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D234" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B235" s="1" t="str">
         <f t="shared" si="0"/>
         <v>prasanna291199@gmail.com</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B236" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D236" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B237" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D237" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B238" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D238" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B239" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D239" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B240" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D240" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B241" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D241" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B242" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D242" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B243" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D243" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B244" s="1" t="str">
         <f t="shared" si="0"/>
         <v>priyadkhairnar15@gmail.com</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B245" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D245" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B246" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D246" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B247" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D247" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B248" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D248" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B249" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D249" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B250" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D250" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B251" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D251" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B252" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D252" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B253" s="1" t="str">
         <f t="shared" si="0"/>
         <v>puranikyashashri@gmail.com</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B254" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D254" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B255" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D255" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B256" s="1" t="str">
         <f t="shared" ref="B256:B365" si="1">IF(A256=A257,"",A256)</f>
         <v/>
       </c>
       <c r="D256" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B257" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D257" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B258" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D258" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B259" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D259" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B260" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D260" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B261" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D261" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B262" s="1" t="str">
         <f t="shared" si="1"/>
         <v>pvaishnavi808@gmail.com</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B263" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D263" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B264" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D264" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B265" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D265" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B266" s="1" t="str">
         <f t="shared" si="1"/>
         <v>rahuld.patil2401@gmail.com</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B267" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D267" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B268" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D268" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B269" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D269" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B270" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D270" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B271" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D271" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B272" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D272" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B273" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D273" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B274" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D274" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B275" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sachinghogare1762@gmail.com</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B276" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D276" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B277" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D277" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B278" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D278" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B279" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D279" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B280" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D280" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B281" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D281" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B282" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D282" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B283" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D283" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B284" s="1" t="str">
         <f t="shared" si="1"/>
         <v>samiyaa.khanam@gmail.com</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D285" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B286" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D286" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B287" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D287" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B288" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D288" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B289" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D289" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B290" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D290" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B291" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D291" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B292" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D292" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B293" s="1" t="str">
         <f t="shared" si="1"/>
         <v>suryawanshih456@gmail.com</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B294" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D294" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B295" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D295" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B296" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D296" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B297" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D297" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B298" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D298" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B299" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D299" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B300" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D300" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B301" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D301" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B302" s="1" t="str">
         <f t="shared" si="1"/>
         <v>vaishnavipatil1143@gmail.com</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B303" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D303" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B304" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D304" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B305" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D305" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B306" s="1" t="str">
         <f t="shared" si="1"/>
         <v>vikrantnikam007@gmail.com</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B307" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D307" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B308" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D308" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B309" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D309" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B310" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vishalmotirale111@gmail.com</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B311" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D311" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B312" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D312" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B313" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D313" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B314" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D314" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B315" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D315" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B316" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D316" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B317" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D317" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B318" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D318" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B319" s="1" t="str">
         <f t="shared" si="1"/>
         <v>vivekslohar@gmail.com</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B320" s="1" t="str">
         <f t="shared" si="1"/>
         <v>104sopanpatil@gmail.com</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B321" s="1" t="str">
         <f t="shared" si="1"/>
         <v>aakashgaikwad0330@gmail.com</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B322" s="1" t="str">
         <f t="shared" si="1"/>
         <v>anjalijadhav4112000@gmail.com</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B323" s="1" t="str">
         <f t="shared" si="1"/>
         <v>atulsalunke7110@gmail.com</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B324" s="1" t="str">
         <f t="shared" si="1"/>
         <v>awareadityaonly1@gmail.com</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B325" s="1" t="str">
         <f t="shared" si="1"/>
         <v>bhanujayeola10@gamil.com</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B326" s="1" t="str">
         <f t="shared" si="1"/>
         <v>bhanujayeola10@gmail.com</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B327" s="1" t="str">
         <f t="shared" si="1"/>
         <v>chaitaliahirrao07112000@gmail.com</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B328" s="1" t="str">
         <f t="shared" si="1"/>
         <v>chetansalunke352000@gmail.com</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B329" s="1" t="str">
         <f t="shared" si="1"/>
         <v>dhanashrimahajan019@gmail.com</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B330" s="1" t="str">
         <f t="shared" si="1"/>
         <v>dikshapatil7890@gmail.com</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B331" s="1" t="str">
         <f t="shared" si="1"/>
         <v>dikshpatil7890@gmail.com</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B332" s="1" t="str">
         <f t="shared" si="1"/>
         <v>dp7083216462@gmail.com</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7890,386 +7987,386 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B334" s="1" t="str">
         <f t="shared" si="1"/>
         <v>fulpagarepradip677@gmail.com</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B335" s="1" t="str">
         <f t="shared" si="1"/>
         <v>harshalbhandarkar001@gmail.com</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B336" s="1" t="str">
         <f t="shared" si="1"/>
         <v>hemangipatil558@gmail.com</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B337" s="1" t="str">
         <f t="shared" si="1"/>
         <v>hemantppatil2000@gmail.com</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B338" s="1" t="str">
         <f t="shared" si="1"/>
         <v>jamadarchetana264@gmail.com</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B339" s="1" t="str">
         <f t="shared" si="1"/>
         <v>jayeshchaudhari7585@gmail.com</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B340" s="1" t="str">
         <f t="shared" si="1"/>
         <v>jayeshchaudhariofficial7585@gmail.com</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B341" s="1" t="str">
         <f t="shared" si="1"/>
         <v>kbdesale999@gmail.com</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B342" s="1" t="str">
         <f t="shared" si="1"/>
         <v>komalnikam0801@gmail.com</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B343" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ksapkal2000@gmail.com</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B344" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lalitmarathe52000@gmail.com</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B345" s="1" t="str">
         <f t="shared" si="1"/>
         <v>mahajankanchan558@gmail.com</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B346" s="1" t="str">
         <f t="shared" si="1"/>
         <v>mayuribari0310@gmail.com</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B347" s="1" t="str">
         <f t="shared" si="1"/>
         <v>nikitapatil7028@gmail.com</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B348" s="1" t="str">
         <f t="shared" si="1"/>
         <v>npofficial399398@gmail.com</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B349" s="1" t="str">
         <f t="shared" si="1"/>
         <v>parudpatil12@gmail.com</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B350" s="1" t="str">
         <f t="shared" si="1"/>
         <v>patilabhishek151089@gmail.com</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B351" s="1" t="str">
         <f t="shared" si="1"/>
         <v>patilbhavesh1572000@gmail.com</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B352" s="1" t="str">
         <f t="shared" si="1"/>
         <v>prachigore408@gmail.com</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B353" s="1" t="str">
         <f t="shared" si="1"/>
         <v>pranits1999@gmail.com</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B354" s="1" t="str">
         <f t="shared" si="1"/>
         <v>prasanna291199@gmail.com</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B355" s="1" t="str">
         <f t="shared" si="1"/>
         <v>priyadkhairnar15@gmail.com</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B356" s="1" t="str">
         <f t="shared" si="1"/>
         <v>puranikyashashri@gmail.com</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B357" s="1" t="str">
         <f t="shared" si="1"/>
         <v>pvaishnavi808@gmail.com</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B358" s="1" t="str">
         <f t="shared" si="1"/>
         <v>rahuld.patil2401@gmail.com</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B359" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sachinghogare1762@gmail.com</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B360" s="1" t="str">
         <f t="shared" si="1"/>
         <v>samiyaa.khanam@gmail.com</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B361" s="1" t="str">
         <f t="shared" si="1"/>
         <v>suryawanshih456@gmail.com</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B362" s="1" t="str">
         <f t="shared" si="1"/>
         <v>vaishnavipatil1143@gmail.com</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B363" s="1" t="str">
         <f t="shared" si="1"/>
         <v>vikrantnikam007@gmail.com</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B364" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vishalmotirale111@gmail.com</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B365" s="1" t="str">
         <f t="shared" si="1"/>
         <v>vivekslohar@gmail.com</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
+++ b/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\cv\2023\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED0DC9-1DF1-42DE-BC8F-DF49D9782586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF96CD8-2A8A-4A8A-B052-916AC26AEE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="996" yWindow="612" windowWidth="22044" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,10 +1298,10 @@
   <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3043,17 +3043,33 @@
       <c r="N29" s="1">
         <v>2018</v>
       </c>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1">
+        <v>74.62</v>
+      </c>
       <c r="P29" s="1">
         <v>2021</v>
       </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="Q29" s="1">
+        <v>70.03</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="V29" s="1">
+        <v>59.57</v>
+      </c>
+      <c r="W29" s="1">
+        <v>55.83</v>
+      </c>
       <c r="X29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Patil Nikita Sharad.pdf</v>

--- a/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
+++ b/2023/Master/Placement Information (2022-23) (Responses) (5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\cv\2023\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF96CD8-2A8A-4A8A-B052-916AC26AEE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9960C03-406C-498B-BEBA-AC5C9BE6A2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="612" windowWidth="22044" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -1298,10 +1298,10 @@
   <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1313,9 @@
     <col min="10" max="10" width="18.88671875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="60" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="18.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="29" width="18.88671875" customWidth="1"/>
+    <col min="14" max="23" width="18.88671875" customWidth="1"/>
+    <col min="24" max="24" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1913,7 +1915,7 @@
         <v>63.16</v>
       </c>
       <c r="X10" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X10" si="1">HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/Master/",A10,".pdf"))</f>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Ghogare Sachin Nanasaheb.pdf</v>
       </c>
     </row>
@@ -3899,7 +3901,7 @@
         <v>0.62170000000000003</v>
       </c>
       <c r="X43" s="5" t="str">
-        <f t="shared" ref="X43" si="1">HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/Master/",A43,".pdf"))</f>
+        <f t="shared" ref="X43" si="2">HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/Master/",A43,".pdf"))</f>
         <v>https://kbcnmustats.github.io/cv/2023/Master/Yeola Bhanuja Bharat.pdf</v>
       </c>
     </row>
